--- a/biology/Botanique/André_Charpin/André_Charpin.xlsx
+++ b/biology/Botanique/André_Charpin/André_Charpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpin</t>
+          <t>André_Charpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Charpin, né en 1937, est un botaniste français.
-Il a décrit et nommé plus de 30 taxons différents[1].
-Il est docteur en sciences et conservateur au Conservatoire et jardin botanique de Genève[2]. Il est membre de la Société botanique de France, en a été président[3].
+Il a décrit et nommé plus de 30 taxons différents.
+Il est docteur en sciences et conservateur au Conservatoire et jardin botanique de Genève. Il est membre de la Société botanique de France, en a été président.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpin</t>
+          <t>André_Charpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adélaïde L Stork et André Charpin, Tulipes sauvages et cultivées, Conservatoire et jardin botaniques de Genève, 1984, 185 p. (ISBN 978-2-8277-0313-5, OCLC 12935135, lire en ligne)
 André Charpin, Contribution à la chorologie des cormophytes de la Haute-Savoie (France), éditeur non identifié, 1976 (lire en ligne)
